--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H2">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.553617333333333</v>
+        <v>6.602366333333333</v>
       </c>
       <c r="N2">
-        <v>16.660852</v>
+        <v>19.807099</v>
       </c>
       <c r="O2">
-        <v>0.673846308532298</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="P2">
-        <v>0.6738463085322982</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="Q2">
-        <v>6.330603571176443</v>
+        <v>9.626624248092222</v>
       </c>
       <c r="R2">
-        <v>56.97543214058799</v>
+        <v>86.63961823282999</v>
       </c>
       <c r="S2">
-        <v>0.1468000227279597</v>
+        <v>0.1642318980702774</v>
       </c>
       <c r="T2">
-        <v>0.1468000227279598</v>
+        <v>0.1642318980702774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H3">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.115741</v>
       </c>
       <c r="O3">
-        <v>0.2877953543625454</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="P3">
-        <v>0.2877953543625455</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="Q3">
-        <v>2.703759410753222</v>
+        <v>3.458384534441111</v>
       </c>
       <c r="R3">
-        <v>24.333834696779</v>
+        <v>31.12546080997</v>
       </c>
       <c r="S3">
-        <v>0.06269733027616324</v>
+        <v>0.05900064671795168</v>
       </c>
       <c r="T3">
-        <v>0.06269733027616327</v>
+        <v>0.05900064671795167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H4">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.075423</v>
+        <v>0.04677800000000001</v>
       </c>
       <c r="N4">
-        <v>0.226269</v>
+        <v>0.140334</v>
       </c>
       <c r="O4">
-        <v>0.009151424572122396</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="P4">
-        <v>0.009151424572122398</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="Q4">
-        <v>0.085975155379</v>
+        <v>0.06820497475333334</v>
       </c>
       <c r="R4">
-        <v>0.7737763984109999</v>
+        <v>0.6138447727799999</v>
       </c>
       <c r="S4">
-        <v>0.001993673213268609</v>
+        <v>0.001163588831650426</v>
       </c>
       <c r="T4">
-        <v>0.001993673213268609</v>
+        <v>0.001163588831650426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H5">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1288736666666667</v>
+        <v>0.112148</v>
       </c>
       <c r="N5">
-        <v>0.386621</v>
+        <v>0.336444</v>
       </c>
       <c r="O5">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266269</v>
       </c>
       <c r="P5">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266268</v>
       </c>
       <c r="Q5">
-        <v>0.1469039088332222</v>
+        <v>0.1635181390533333</v>
       </c>
       <c r="R5">
-        <v>1.322135179499</v>
+        <v>1.47166325148</v>
       </c>
       <c r="S5">
-        <v>0.00340654677126395</v>
+        <v>0.00278964813142785</v>
       </c>
       <c r="T5">
-        <v>0.003406546771263951</v>
+        <v>0.002789648131427849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H6">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.11184</v>
+        <v>0.2078846666666666</v>
       </c>
       <c r="N6">
-        <v>0.33552</v>
+        <v>0.6236539999999999</v>
       </c>
       <c r="O6">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="P6">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="Q6">
-        <v>0.12748712432</v>
+        <v>0.303107624131111</v>
       </c>
       <c r="R6">
-        <v>1.14738411888</v>
+        <v>2.727968617179999</v>
       </c>
       <c r="S6">
-        <v>0.002956292008697097</v>
+        <v>0.00517106922922538</v>
       </c>
       <c r="T6">
-        <v>0.002956292008697098</v>
+        <v>0.005171069229225379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.553617333333333</v>
+        <v>6.602366333333333</v>
       </c>
       <c r="N7">
-        <v>16.660852</v>
+        <v>19.807099</v>
       </c>
       <c r="O7">
-        <v>0.673846308532298</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="P7">
-        <v>0.6738463085322982</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="Q7">
-        <v>10.568111710416</v>
+        <v>12.563801352492</v>
       </c>
       <c r="R7">
-        <v>95.113005393744</v>
+        <v>113.074212172428</v>
       </c>
       <c r="S7">
-        <v>0.2450633690512993</v>
+        <v>0.2143406546180084</v>
       </c>
       <c r="T7">
-        <v>0.2450633690512994</v>
+        <v>0.2143406546180084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>7.115741</v>
       </c>
       <c r="O8">
-        <v>0.2877953543625454</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="P8">
-        <v>0.2877953543625455</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="Q8">
-        <v>4.513571442228001</v>
+        <v>4.513571442227999</v>
       </c>
       <c r="R8">
         <v>40.622142980052</v>
       </c>
       <c r="S8">
-        <v>0.1046649632777761</v>
+        <v>0.0770023204322956</v>
       </c>
       <c r="T8">
-        <v>0.1046649632777761</v>
+        <v>0.0770023204322956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.075423</v>
+        <v>0.04677800000000001</v>
       </c>
       <c r="N9">
-        <v>0.226269</v>
+        <v>0.140334</v>
       </c>
       <c r="O9">
-        <v>0.009151424572122396</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="P9">
-        <v>0.009151424572122398</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="Q9">
-        <v>0.143524236852</v>
+        <v>0.08901497887200001</v>
       </c>
       <c r="R9">
-        <v>1.291718131668</v>
+        <v>0.801134809848</v>
       </c>
       <c r="S9">
-        <v>0.00332817574106465</v>
+        <v>0.001518611151747341</v>
       </c>
       <c r="T9">
-        <v>0.003328175741064651</v>
+        <v>0.001518611151747341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1288736666666667</v>
+        <v>0.112148</v>
       </c>
       <c r="N10">
-        <v>0.386621</v>
+        <v>0.336444</v>
       </c>
       <c r="O10">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266269</v>
       </c>
       <c r="P10">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266268</v>
       </c>
       <c r="Q10">
-        <v>0.245236793268</v>
+        <v>0.213409120752</v>
       </c>
       <c r="R10">
-        <v>2.207131139412</v>
+        <v>1.920682086768</v>
       </c>
       <c r="S10">
-        <v>0.005686782693104915</v>
+        <v>0.003640797029504484</v>
       </c>
       <c r="T10">
-        <v>0.005686782693104917</v>
+        <v>0.003640797029504484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.11184</v>
+        <v>0.2078846666666666</v>
       </c>
       <c r="N11">
-        <v>0.33552</v>
+        <v>0.6236539999999999</v>
       </c>
       <c r="O11">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="P11">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="Q11">
-        <v>0.21282302016</v>
+        <v>0.3955887214319999</v>
       </c>
       <c r="R11">
-        <v>1.91540718144</v>
+        <v>3.560298492887999</v>
       </c>
       <c r="S11">
-        <v>0.004935141467200595</v>
+        <v>0.006748812969286386</v>
       </c>
       <c r="T11">
-        <v>0.004935141467200596</v>
+        <v>0.006748812969286386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H12">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I12">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J12">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.553617333333333</v>
+        <v>6.602366333333333</v>
       </c>
       <c r="N12">
-        <v>16.660852</v>
+        <v>19.807099</v>
       </c>
       <c r="O12">
-        <v>0.673846308532298</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="P12">
-        <v>0.6738463085322982</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="Q12">
-        <v>12.16023013235911</v>
+        <v>19.23991831855744</v>
       </c>
       <c r="R12">
-        <v>109.442071191232</v>
+        <v>173.159264867017</v>
       </c>
       <c r="S12">
-        <v>0.2819829167530389</v>
+        <v>0.3282363809722804</v>
       </c>
       <c r="T12">
-        <v>0.281982916753039</v>
+        <v>0.3282363809722804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H13">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I13">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J13">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.115741</v>
       </c>
       <c r="O13">
-        <v>0.2877953543625454</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="P13">
-        <v>0.2877953543625455</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="Q13">
-        <v>5.193554814739555</v>
+        <v>6.911980175189222</v>
       </c>
       <c r="R13">
-        <v>46.741993332656</v>
+        <v>62.207821576703</v>
       </c>
       <c r="S13">
-        <v>0.1204330608086061</v>
+        <v>0.1179195940695846</v>
       </c>
       <c r="T13">
-        <v>0.1204330608086061</v>
+        <v>0.1179195940695846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H14">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I14">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J14">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.075423</v>
+        <v>0.04677800000000001</v>
       </c>
       <c r="N14">
-        <v>0.226269</v>
+        <v>0.140334</v>
       </c>
       <c r="O14">
-        <v>0.009151424572122396</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="P14">
-        <v>0.009151424572122398</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="Q14">
-        <v>0.165146603056</v>
+        <v>0.1363155047246667</v>
       </c>
       <c r="R14">
-        <v>1.486319427504</v>
+        <v>1.226839542522</v>
       </c>
       <c r="S14">
-        <v>0.003829575617789136</v>
+        <v>0.002325566418755416</v>
       </c>
       <c r="T14">
-        <v>0.003829575617789138</v>
+        <v>0.002325566418755416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H15">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I15">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J15">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1288736666666667</v>
+        <v>0.112148</v>
       </c>
       <c r="N15">
-        <v>0.386621</v>
+        <v>0.336444</v>
       </c>
       <c r="O15">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266269</v>
       </c>
       <c r="P15">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266268</v>
       </c>
       <c r="Q15">
-        <v>0.2821824678595555</v>
+        <v>0.3268098512946667</v>
       </c>
       <c r="R15">
-        <v>2.539642210736</v>
+        <v>2.941288661652</v>
       </c>
       <c r="S15">
-        <v>0.006543513936620809</v>
+        <v>0.005575433381730353</v>
       </c>
       <c r="T15">
-        <v>0.006543513936620812</v>
+        <v>0.005575433381730352</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H16">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I16">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J16">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.11184</v>
+        <v>0.2078846666666666</v>
       </c>
       <c r="N16">
-        <v>0.33552</v>
+        <v>0.6236539999999999</v>
       </c>
       <c r="O16">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="P16">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="Q16">
-        <v>0.24488546048</v>
+        <v>0.6057955291202222</v>
       </c>
       <c r="R16">
-        <v>2.20396914432</v>
+        <v>5.452159762081999</v>
       </c>
       <c r="S16">
-        <v>0.005678635656146493</v>
+        <v>0.01033497797627439</v>
       </c>
       <c r="T16">
-        <v>0.005678635656146496</v>
+        <v>0.01033497797627439</v>
       </c>
     </row>
   </sheetData>
